--- a/Kmarket 테이블 명세서 v1.0.xlsx
+++ b/Kmarket 테이블 명세서 v1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" tabRatio="884" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" tabRatio="884" firstSheet="6" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="테이블" sheetId="1" r:id="rId1"/>
@@ -29,18 +29,19 @@
     <sheet name="자주하는 질문" sheetId="16" r:id="rId15"/>
     <sheet name="공지사항 1차 카테고리" sheetId="17" r:id="rId16"/>
     <sheet name="공지사항 2차 카테고리" sheetId="18" r:id="rId17"/>
+    <sheet name="쿠폰 테이블" sheetId="20" r:id="rId18"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId18" roundtripDataSignature="AMtx7mg0OSVdVK+ABti0rkEYWZpV+3ZAtw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId19" roundtripDataSignature="AMtx7mg0OSVdVK+ABti0rkEYWZpV+3ZAtw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="479">
   <si>
     <t>작업일자</t>
   </si>
@@ -1754,6 +1755,26 @@
   </si>
   <si>
     <t>테이블명 : km_termsPolicy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>km_termsPolicy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 약관 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠폰 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>km_coupon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명 : km_coupon(공지사항 2차 카테고리)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2493,7 +2514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2685,6 +2706,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3032,8 +3056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:D25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3051,420 +3075,428 @@
   <sheetData>
     <row r="1" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="75" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77"/>
       <c r="F2" s="36" t="s">
         <v>372</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="74" t="s">
         <v>381</v>
       </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="73"/>
     </row>
     <row r="3" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="79"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="G3" s="73" t="s">
+      <c r="G3" s="74" t="s">
         <v>378</v>
       </c>
-      <c r="H3" s="71"/>
-      <c r="I3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="73"/>
     </row>
     <row r="4" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="81" t="s">
         <v>379</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="73" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="74" t="s">
         <v>461</v>
       </c>
-      <c r="E4" s="72"/>
+      <c r="E4" s="73"/>
       <c r="F4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="70">
+      <c r="G4" s="71">
         <v>44901</v>
       </c>
-      <c r="H4" s="71"/>
-      <c r="I4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="73"/>
     </row>
     <row r="5" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="73" t="s">
+      <c r="C5" s="73"/>
+      <c r="D5" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="72"/>
+      <c r="E5" s="73"/>
       <c r="F5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="74" t="s">
         <v>462</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
     </row>
     <row r="6" spans="2:9" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="82" t="s">
+      <c r="C7" s="72"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="71"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="82" t="s">
+      <c r="F7" s="72"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="72"/>
+      <c r="I7" s="73"/>
     </row>
     <row r="8" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="86" t="s">
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="84"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="87"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
     </row>
     <row r="9" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="65" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="66"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="68"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="69"/>
     </row>
     <row r="10" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="65" t="s">
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="68"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="69"/>
     </row>
     <row r="11" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="65" t="s">
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="68"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="69"/>
     </row>
     <row r="12" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="70" t="s">
         <v>280</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="65" t="s">
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="66"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="68"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="69"/>
     </row>
     <row r="13" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="65" t="s">
+      <c r="C13" s="89"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="66"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="68"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="69"/>
     </row>
     <row r="14" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="65" t="s">
+      <c r="C14" s="67"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="66"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="68"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="69"/>
     </row>
     <row r="15" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="65" t="s">
+      <c r="C15" s="67"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="66"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="68"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="69"/>
     </row>
     <row r="16" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="65" t="s">
+      <c r="C16" s="67"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="F16" s="66"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="68"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="69"/>
     </row>
     <row r="17" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="65" t="s">
+      <c r="C17" s="67"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="66"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="68"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="69"/>
     </row>
     <row r="18" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="69"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="68"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="69"/>
     </row>
     <row r="19" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="70" t="s">
         <v>382</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="65" t="s">
+      <c r="C19" s="67"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="66" t="s">
         <v>387</v>
       </c>
-      <c r="F19" s="66"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="68"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="69"/>
     </row>
     <row r="20" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="70" t="s">
         <v>383</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="65" t="s">
+      <c r="C20" s="67"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="66" t="s">
         <v>388</v>
       </c>
-      <c r="F20" s="66"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="68"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="69"/>
     </row>
     <row r="21" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="70" t="s">
         <v>384</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="65" t="s">
+      <c r="C21" s="67"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="66" t="s">
         <v>389</v>
       </c>
-      <c r="F21" s="66"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="68"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="69"/>
     </row>
     <row r="22" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="70" t="s">
         <v>385</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="65" t="s">
+      <c r="C22" s="67"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="66" t="s">
         <v>390</v>
       </c>
-      <c r="F22" s="66"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="68"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="69"/>
     </row>
     <row r="23" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="70" t="s">
         <v>386</v>
       </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="65" t="s">
+      <c r="C23" s="67"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="66" t="s">
         <v>391</v>
       </c>
-      <c r="F23" s="66"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="68"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="69"/>
     </row>
     <row r="24" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="69"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="68"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="69"/>
     </row>
     <row r="25" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="69"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="68"/>
+      <c r="B25" s="70" t="s">
+        <v>474</v>
+      </c>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="66" t="s">
+        <v>475</v>
+      </c>
+      <c r="F25" s="67"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="69"/>
     </row>
     <row r="26" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="102"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="101"/>
+      <c r="B26" s="103" t="s">
+        <v>477</v>
+      </c>
+      <c r="C26" s="100"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="99" t="s">
+        <v>476</v>
+      </c>
+      <c r="F26" s="100"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="102"/>
     </row>
     <row r="27" spans="2:9" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="73"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="91"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="93"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="94"/>
     </row>
     <row r="30" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="94"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="93"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="94"/>
     </row>
     <row r="31" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="94"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="93"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="94"/>
     </row>
     <row r="32" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="94"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="93"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="94"/>
     </row>
     <row r="33" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="94"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="93"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="94"/>
     </row>
     <row r="34" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="94"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="93"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="94"/>
     </row>
     <row r="35" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="95"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="97"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="98"/>
     </row>
     <row r="36" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
@@ -4878,15 +4910,15 @@
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="73"/>
     </row>
     <row r="24" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="30" t="s">
@@ -7859,13 +7891,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="105" t="s">
         <v>303</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8029,15 +8061,15 @@
     </row>
     <row r="12" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="73"/>
     </row>
     <row r="14" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="30"/>
@@ -9082,13 +9114,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="105" t="s">
         <v>298</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
       <c r="H1" s="62"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9322,15 +9354,15 @@
       <c r="H19" s="62"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="107"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="30"/>
@@ -10383,13 +10415,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="105" t="s">
         <v>392</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10602,15 +10634,15 @@
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="107"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="30"/>
@@ -11645,13 +11677,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="105" t="s">
         <v>414</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11896,15 +11928,15 @@
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="107"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="30"/>
@@ -12939,13 +12971,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="105" t="s">
         <v>439</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13158,15 +13190,15 @@
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="107"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="30"/>
@@ -14201,13 +14233,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="105" t="s">
         <v>450</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14388,15 +14420,15 @@
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="107"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="30"/>
@@ -15431,13 +15463,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="105" t="s">
         <v>455</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15624,15 +15656,1227 @@
     </row>
     <row r="19" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="107"/>
+    </row>
+    <row r="21" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="30"/>
+      <c r="H21" s="31"/>
+    </row>
+    <row r="22" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="30"/>
+      <c r="H22" s="31"/>
+    </row>
+    <row r="23" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="30"/>
+      <c r="H23" s="31"/>
+    </row>
+    <row r="24" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="30"/>
+      <c r="H24" s="31"/>
+    </row>
+    <row r="25" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="35"/>
+    </row>
+    <row r="26" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B20:H20"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H999"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" style="65" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="65" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="65" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="65" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="65" customWidth="1"/>
+    <col min="9" max="25" width="7.5703125" style="65" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="65"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="105" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+    </row>
+    <row r="2" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="43"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="46"/>
+    </row>
+    <row r="5" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="43"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="46"/>
+    </row>
+    <row r="6" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="43"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="43"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="43"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="19"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="24"/>
+    </row>
+    <row r="18" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="25"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="29"/>
+    </row>
+    <row r="19" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="107"/>
     </row>
     <row r="21" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="30"/>
@@ -16667,11 +17911,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
       <c r="F1" s="7"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17199,15 +18443,15 @@
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="90" t="s">
+      <c r="B34" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="73"/>
     </row>
     <row r="35" spans="2:8" s="38" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="30"/>
@@ -20151,12 +21395,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="105" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
       <c r="F1" s="50"/>
       <c r="G1" s="61"/>
       <c r="H1" s="50"/>
@@ -20355,15 +21599,15 @@
     </row>
     <row r="18" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="73"/>
     </row>
     <row r="20" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="30"/>
@@ -21394,12 +22638,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -21614,15 +22858,15 @@
     </row>
     <row r="20" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="73"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="30"/>
@@ -22637,7 +23881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -22654,12 +23898,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="105" t="s">
         <v>473</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -22858,15 +24102,15 @@
     </row>
     <row r="20" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="73"/>
     </row>
     <row r="22" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="30"/>
@@ -23900,12 +25144,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="105" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
       <c r="F1" s="50"/>
       <c r="G1" s="50"/>
       <c r="H1" s="50"/>
@@ -23983,15 +25227,15 @@
     </row>
     <row r="7" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="73"/>
     </row>
     <row r="9" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="30" t="s">
@@ -25174,15 +26418,15 @@
     </row>
     <row r="8" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="73"/>
     </row>
     <row r="10" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
@@ -26676,12 +27920,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="105" t="s">
         <v>279</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27290,15 +28534,15 @@
     </row>
     <row r="39" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="90" t="s">
+      <c r="B40" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="72"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="73"/>
     </row>
     <row r="41" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="30" t="s">
@@ -28333,12 +29577,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="105" t="s">
         <v>278</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28565,15 +29809,15 @@
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="73"/>
     </row>
     <row r="19" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="30"/>
